--- a/Data/JOLTS/South_unemployment.xlsx
+++ b/Data/JOLTS/South_unemployment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/meschef_clemson_edu/Documents/Econ_Trends/Econ-Trends/Data/JOLTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE39A6C-590F-7B47-99D5-EC92B666317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E64E1A-EDF1-D74B-9ABE-E67AA6281AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,918 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D224" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D225" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D242" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D243" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D244" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D248" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D251" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D261" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D264" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D265" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Data were subject to revision on March 2, 2022.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="31">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -64,7 +974,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>2000 to 2021</t>
+    <t>2000 to 2022</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -246,6 +1156,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1085" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2137D32D-F976-CD43-9965-53F49B9DA85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,8 +1508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -3549,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="D217" s="3">
-        <v>2798465</v>
+        <v>2788626</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3563,7 +4527,7 @@
         <v>20</v>
       </c>
       <c r="D218" s="3">
-        <v>2745399</v>
+        <v>2736500</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,7 +4541,7 @@
         <v>21</v>
       </c>
       <c r="D219" s="3">
-        <v>2689282</v>
+        <v>2681931</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,7 +4555,7 @@
         <v>22</v>
       </c>
       <c r="D220" s="3">
-        <v>2636562</v>
+        <v>2630922</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3605,7 +4569,7 @@
         <v>23</v>
       </c>
       <c r="D221" s="3">
-        <v>2588160</v>
+        <v>2583849</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3619,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="D222" s="3">
-        <v>2549163</v>
+        <v>2545382</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3633,7 +4597,7 @@
         <v>25</v>
       </c>
       <c r="D223" s="3">
-        <v>2522508</v>
+        <v>2518480</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3647,7 +4611,7 @@
         <v>26</v>
       </c>
       <c r="D224" s="3">
-        <v>2501526</v>
+        <v>2496887</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,7 +4625,7 @@
         <v>27</v>
       </c>
       <c r="D225" s="3">
-        <v>2481390</v>
+        <v>2476232</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,7 +4639,7 @@
         <v>28</v>
       </c>
       <c r="D226" s="3">
-        <v>2460835</v>
+        <v>2454733</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3689,7 +4653,7 @@
         <v>29</v>
       </c>
       <c r="D227" s="3">
-        <v>2441623</v>
+        <v>2433804</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -3703,7 +4667,7 @@
         <v>30</v>
       </c>
       <c r="D228" s="3">
-        <v>2419783</v>
+        <v>2410481</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3717,7 +4681,7 @@
         <v>19</v>
       </c>
       <c r="D229" s="3">
-        <v>2396350</v>
+        <v>2386621</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,7 +4695,7 @@
         <v>20</v>
       </c>
       <c r="D230" s="3">
-        <v>2373218</v>
+        <v>2364041</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -3745,7 +4709,7 @@
         <v>21</v>
       </c>
       <c r="D231" s="3">
-        <v>2348849</v>
+        <v>2340808</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -3759,7 +4723,7 @@
         <v>22</v>
       </c>
       <c r="D232" s="3">
-        <v>2320852</v>
+        <v>2314424</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -3773,7 +4737,7 @@
         <v>23</v>
       </c>
       <c r="D233" s="3">
-        <v>2293661</v>
+        <v>2288816</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,7 +4751,7 @@
         <v>24</v>
       </c>
       <c r="D234" s="3">
-        <v>2268866</v>
+        <v>2264886</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3801,7 +4765,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="3">
-        <v>2246201</v>
+        <v>2242477</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3815,7 +4779,7 @@
         <v>26</v>
       </c>
       <c r="D236" s="3">
-        <v>2232735</v>
+        <v>2229336</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,7 +4793,7 @@
         <v>27</v>
       </c>
       <c r="D237" s="3">
-        <v>2232070</v>
+        <v>2229566</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,7 +4807,7 @@
         <v>28</v>
       </c>
       <c r="D238" s="3">
-        <v>2240510</v>
+        <v>2238219</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3857,7 +4821,7 @@
         <v>29</v>
       </c>
       <c r="D239" s="3">
-        <v>2250431</v>
+        <v>2246296</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,7 +4835,7 @@
         <v>30</v>
       </c>
       <c r="D240" s="3">
-        <v>2251145</v>
+        <v>2244592</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3885,7 +4849,7 @@
         <v>19</v>
       </c>
       <c r="D241" s="3">
-        <v>2235210</v>
+        <v>2227144</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3899,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="D242" s="3">
-        <v>2200687</v>
+        <v>2192308</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3913,7 +4877,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="3">
-        <v>2159420</v>
+        <v>2151434</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3927,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="D244" s="3">
-        <v>2121314</v>
+        <v>2114920</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,7 +4905,7 @@
         <v>23</v>
       </c>
       <c r="D245" s="3">
-        <v>2095293</v>
+        <v>2091284</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -3955,7 +4919,7 @@
         <v>24</v>
       </c>
       <c r="D246" s="3">
-        <v>2087769</v>
+        <v>2085799</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -3969,7 +4933,7 @@
         <v>25</v>
       </c>
       <c r="D247" s="3">
-        <v>2096365</v>
+        <v>2095797</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -3983,7 +4947,7 @@
         <v>26</v>
       </c>
       <c r="D248" s="3">
-        <v>2107894</v>
+        <v>2108602</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -3997,7 +4961,7 @@
         <v>27</v>
       </c>
       <c r="D249" s="3">
-        <v>2106589</v>
+        <v>2107588</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -4011,7 +4975,7 @@
         <v>28</v>
       </c>
       <c r="D250" s="3">
-        <v>2093464</v>
+        <v>2097685</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4025,7 +4989,7 @@
         <v>29</v>
       </c>
       <c r="D251" s="3">
-        <v>2080207</v>
+        <v>2087160</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,7 +5003,7 @@
         <v>30</v>
       </c>
       <c r="D252" s="3">
-        <v>2087648</v>
+        <v>2084382</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -4053,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="D253" s="3">
-        <v>2123506</v>
+        <v>2092659</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,7 +5031,7 @@
         <v>20</v>
       </c>
       <c r="D254" s="3">
-        <v>2180353</v>
+        <v>2111509</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,7 +5045,7 @@
         <v>21</v>
       </c>
       <c r="D255" s="3">
-        <v>2550934</v>
+        <v>2579147</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,7 +5059,7 @@
         <v>22</v>
       </c>
       <c r="D256" s="3">
-        <v>7602616</v>
+        <v>7454191</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,7 +5073,7 @@
         <v>23</v>
       </c>
       <c r="D257" s="3">
-        <v>6614450</v>
+        <v>6758450</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,7 +5087,7 @@
         <v>24</v>
       </c>
       <c r="D258" s="3">
-        <v>5581198</v>
+        <v>5690870</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,7 +5101,7 @@
         <v>25</v>
       </c>
       <c r="D259" s="3">
-        <v>5298553</v>
+        <v>5425345</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,7 +5115,7 @@
         <v>26</v>
       </c>
       <c r="D260" s="3">
-        <v>4301047</v>
+        <v>4481515</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -4165,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="D261" s="3">
-        <v>4233042</v>
+        <v>4256588</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4179,7 +5143,7 @@
         <v>28</v>
       </c>
       <c r="D262" s="3">
-        <v>3900753</v>
+        <v>3793598</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4193,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="D263" s="3">
-        <v>3671872</v>
+        <v>3623935</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -4207,7 +5171,7 @@
         <v>30</v>
       </c>
       <c r="D264" s="3">
-        <v>3567465</v>
+        <v>3543818</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4221,7 +5185,7 @@
         <v>19</v>
       </c>
       <c r="D265" s="3">
-        <v>3423093</v>
+        <v>3384250</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -4235,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="D266" s="3">
-        <v>3365554</v>
+        <v>3292703</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,7 +5213,7 @@
         <v>21</v>
       </c>
       <c r="D267" s="3">
-        <v>3296619</v>
+        <v>3196300</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -4263,7 +5227,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="3">
-        <v>3232073</v>
+        <v>3147187</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -4277,7 +5241,7 @@
         <v>23</v>
       </c>
       <c r="D269" s="3">
-        <v>3159434</v>
+        <v>3043215</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -4291,7 +5255,7 @@
         <v>24</v>
       </c>
       <c r="D270" s="3">
-        <v>3134858</v>
+        <v>3014585</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,7 +5269,7 @@
         <v>25</v>
       </c>
       <c r="D271" s="3">
-        <v>3039141</v>
+        <v>2877264</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,7 +5283,7 @@
         <v>26</v>
       </c>
       <c r="D272" s="3">
-        <v>2944948</v>
+        <v>2769653</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -4333,7 +5297,7 @@
         <v>27</v>
       </c>
       <c r="D273" s="3">
-        <v>2825992</v>
+        <v>2614951</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,7 +5311,7 @@
         <v>28</v>
       </c>
       <c r="D274" s="3">
-        <v>2712496</v>
+        <v>2523062</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,7 +5325,7 @@
         <v>29</v>
       </c>
       <c r="D275" s="3">
-        <v>2598214</v>
+        <v>2455032</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,7 +5339,35 @@
         <v>30</v>
       </c>
       <c r="D276" s="3">
-        <v>2475140</v>
+        <v>2429637</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2378613</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2320399</v>
       </c>
     </row>
   </sheetData>
@@ -4395,7 +5387,9 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: February 17, 2022 (11:31:45 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 28, 2022 (06:25:15 PM)</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>